--- a/text.xlsx
+++ b/text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="10">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
@@ -1140,6 +1140,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
